--- a/metrics/transfer_time/cleaned_data/ES_02.eth0.xlsx
+++ b/metrics/transfer_time/cleaned_data/ES_02.eth0.xlsx
@@ -2882,8 +2882,12 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>157576.98</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6584.78</v>
+      </c>
       <c r="D144" t="n">
         <v>13.03</v>
       </c>
